--- a/stresslevel.xlsx
+++ b/stresslevel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huaweı\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35050B6C-7F15-41B4-BEBB-098311BF4E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC676946-9F7F-445C-B81C-9C043F55EE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{96E2EB0A-60DB-46F9-A655-503641024456}"/>
   </bookViews>
@@ -141,9 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,12 +482,18 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -508,10 +515,10 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -538,13 +545,13 @@
         <v>6</v>
       </c>
       <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -566,17 +573,18 @@
       <c r="D3">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>7</v>
+      <c r="E3" s="2">
+        <f>F3-G3</f>
+        <v>5.5</v>
       </c>
       <c r="F3">
         <v>8</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
+      <c r="G3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
       </c>
       <c r="I3">
         <v>4</v>
@@ -598,16 +606,17 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E33" si="0">F4-G4</f>
         <v>4</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>8</v>
       </c>
       <c r="I4">
@@ -630,16 +639,17 @@
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5">
-        <v>6</v>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
       </c>
       <c r="F5">
         <v>9</v>
       </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="2">
         <v>7</v>
       </c>
       <c r="I5">
@@ -662,16 +672,17 @@
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>5</v>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>6.75</v>
       </c>
       <c r="F6">
         <v>7</v>
       </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="2">
         <v>7</v>
       </c>
       <c r="I6">
@@ -694,17 +705,18 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>8</v>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
+      <c r="G7" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -726,16 +738,17 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>7</v>
       </c>
       <c r="I8">
@@ -758,17 +771,18 @@
       <c r="D9">
         <v>5</v>
       </c>
-      <c r="E9">
-        <v>7</v>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
+      <c r="G9" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
       </c>
       <c r="I9">
         <v>5</v>
@@ -790,16 +804,17 @@
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10">
-        <v>6</v>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>7</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
         <v>6</v>
       </c>
       <c r="I10">
@@ -822,17 +837,18 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
-        <v>5</v>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
       </c>
       <c r="F11">
         <v>6</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
+      <c r="G11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>7.5</v>
       </c>
       <c r="I11">
         <v>3</v>
@@ -854,17 +870,18 @@
       <c r="D12">
         <v>6</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>3</v>
       </c>
-      <c r="H12">
-        <v>6</v>
+      <c r="H12" s="2">
+        <v>5.5</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -886,17 +903,18 @@
       <c r="D13">
         <v>5</v>
       </c>
-      <c r="E13">
-        <v>7</v>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
       </c>
       <c r="F13">
         <v>9</v>
       </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
+      <c r="G13" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4.5</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -918,17 +936,18 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>8</v>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
+      <c r="G14" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="2">
+        <v>7.5</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -950,16 +969,17 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
-        <v>4</v>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
       </c>
       <c r="F15">
         <v>5</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
+      <c r="G15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H15" s="2">
         <v>7</v>
       </c>
       <c r="I15">
@@ -982,17 +1002,18 @@
       <c r="D16">
         <v>4</v>
       </c>
-      <c r="E16">
-        <v>6</v>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
       </c>
       <c r="F16">
         <v>7</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>6</v>
+      <c r="G16" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H16" s="2">
+        <v>6.5</v>
       </c>
       <c r="I16">
         <v>4</v>
@@ -1014,16 +1035,17 @@
       <c r="D17">
         <v>4</v>
       </c>
-      <c r="E17">
-        <v>5</v>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
       </c>
       <c r="F17">
         <v>7</v>
       </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
+      <c r="G17" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="H17" s="2">
         <v>6</v>
       </c>
       <c r="I17">
@@ -1046,16 +1068,17 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18">
-        <v>4</v>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
+      <c r="G18" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H18" s="2">
         <v>7</v>
       </c>
       <c r="I18">
@@ -1078,17 +1101,18 @@
       <c r="D19">
         <v>6</v>
       </c>
-      <c r="E19">
-        <v>6</v>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
       </c>
       <c r="F19">
         <v>9</v>
       </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>6</v>
+      <c r="G19" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1110,17 +1134,18 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20">
-        <v>9</v>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9</v>
       </c>
       <c r="F20">
         <v>10</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
+      <c r="G20" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>8.5</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1142,16 +1167,17 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F21">
         <v>5</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>7</v>
       </c>
       <c r="I21">
@@ -1174,17 +1200,18 @@
       <c r="D22">
         <v>4</v>
       </c>
-      <c r="E22">
-        <v>6</v>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
       </c>
       <c r="F22">
         <v>7</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>7</v>
+      <c r="G22" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="H22" s="2">
+        <v>6.5</v>
       </c>
       <c r="I22">
         <v>6</v>
@@ -1206,16 +1233,17 @@
       <c r="D23">
         <v>4</v>
       </c>
-      <c r="E23">
-        <v>6</v>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
       </c>
       <c r="F23">
         <v>8</v>
       </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
+      <c r="G23" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="H23" s="2">
         <v>6</v>
       </c>
       <c r="I23">
@@ -1238,17 +1266,18 @@
       <c r="D24">
         <v>7</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F24">
         <v>10</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>3</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="I24">
         <v>4</v>
@@ -1270,16 +1299,17 @@
       <c r="D25">
         <v>7</v>
       </c>
-      <c r="E25">
-        <v>7</v>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F25">
         <v>10</v>
       </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25">
+      <c r="G25" s="2">
+        <v>4</v>
+      </c>
+      <c r="H25" s="2">
         <v>5</v>
       </c>
       <c r="I25">
@@ -1302,17 +1332,18 @@
       <c r="D26">
         <v>7</v>
       </c>
-      <c r="E26">
-        <v>8</v>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F26">
         <v>11</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
+        <v>5</v>
+      </c>
+      <c r="H26" s="2">
         <v>3</v>
-      </c>
-      <c r="H26">
-        <v>5</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -1334,20 +1365,18 @@
       <c r="D27">
         <v>4</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F27">
         <v>8</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>1</v>
       </c>
-      <c r="H27">
-        <v>5</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
+      <c r="H27" s="2">
+        <v>6</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1366,17 +1395,18 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28">
-        <v>9</v>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
       </c>
       <c r="F28">
         <v>10</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>6</v>
+      <c r="G28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="2">
+        <v>8.5</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1398,17 +1428,18 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29">
-        <v>4</v>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9749999999999996</v>
       </c>
       <c r="F29">
         <v>5</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>6</v>
+      <c r="G29" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>9</v>
       </c>
       <c r="I29">
         <v>4</v>
@@ -1430,16 +1461,17 @@
       <c r="D30">
         <v>5</v>
       </c>
-      <c r="E30">
-        <v>7</v>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>7.3</v>
       </c>
       <c r="F30">
         <v>9</v>
       </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30">
+      <c r="G30" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="H30" s="2">
         <v>6</v>
       </c>
       <c r="I30">
@@ -1462,17 +1494,18 @@
       <c r="D31">
         <v>7</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F31">
         <v>11</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>3</v>
       </c>
-      <c r="H31">
-        <v>6</v>
+      <c r="H31" s="2">
+        <v>4.5</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -1494,16 +1527,17 @@
       <c r="D32">
         <v>7</v>
       </c>
-      <c r="E32">
-        <v>8</v>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>9.25</v>
       </c>
       <c r="F32">
         <v>11</v>
       </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="H32">
+      <c r="G32" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="H32" s="2">
         <v>6</v>
       </c>
       <c r="I32">
@@ -1526,17 +1560,18 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33">
-        <v>9</v>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9499999999999993</v>
       </c>
       <c r="F33">
         <v>10</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>6</v>
+      <c r="G33" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H33" s="2">
+        <v>9</v>
       </c>
       <c r="I33">
         <v>0</v>

--- a/stresslevel.xlsx
+++ b/stresslevel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huaweı\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huaweı\Desktop\stresslevelanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35050B6C-7F15-41B4-BEBB-098311BF4E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915B3144-16BA-4B53-B477-F19096F3A254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{96E2EB0A-60DB-46F9-A655-503641024456}"/>
   </bookViews>
@@ -141,9 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,13 +481,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF59C71-039C-4FCD-A08D-A9D36C617BEC}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -508,10 +515,10 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -531,23 +538,25 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>5</v>
+      <c r="D2" s="2">
+        <f>6-G2+0.2</f>
+        <v>3.2</v>
       </c>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2">
+        <f>7-G2+0.1</f>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -563,23 +572,26 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
+      <c r="D3" s="2">
+        <f>6-G3+0.4</f>
+        <v>3.9</v>
+      </c>
+      <c r="E3" s="2">
+        <f>F3-G3</f>
+        <v>5.5</v>
       </c>
       <c r="F3">
         <v>8</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
+      <c r="G3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
+        <f>7-G3-0.1</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -595,23 +607,26 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="2">
+        <f>6-G4+0.1</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E33" si="0">F4-G4</f>
         <v>4</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>8</v>
       </c>
-      <c r="I4">
-        <v>3</v>
+      <c r="I4" s="2">
+        <f>7-G4+0.2</f>
+        <v>6.2</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -627,23 +642,26 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
+      <c r="D5" s="2">
+        <f>6-G5+0.3</f>
+        <v>5.8</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
       </c>
       <c r="F5">
         <v>9</v>
       </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="2">
         <v>7</v>
       </c>
-      <c r="I5">
-        <v>2</v>
+      <c r="I5" s="2">
+        <f>7-G5-0.1</f>
+        <v>6.4</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -659,23 +677,26 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
+      <c r="D6" s="2">
+        <f>6-G6+0.2</f>
+        <v>5.95</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>6.75</v>
       </c>
       <c r="F6">
         <v>7</v>
       </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="2">
         <v>7</v>
       </c>
-      <c r="I6">
-        <v>1</v>
+      <c r="I6" s="2">
+        <f>7-G6-0.2</f>
+        <v>6.55</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -691,23 +712,26 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
+      <c r="D7" s="2">
+        <f>6-G7+0.1</f>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+      <c r="G7" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2">
+        <f>7-G7+0.3</f>
+        <v>6.05</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
@@ -723,23 +747,26 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="2">
+        <f>6-G8+0.2</f>
+        <v>5.2</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>7</v>
       </c>
-      <c r="I8">
-        <v>6</v>
+      <c r="I8" s="2">
+        <f>7-G8-5</f>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -755,23 +782,26 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
+      <c r="D9" s="2">
+        <f>6-G9-0.1</f>
+        <v>3.65</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9">
+      <c r="G9" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="H9" s="2">
         <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <f>7-G9+0.02</f>
+        <v>4.7699999999999996</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -787,23 +817,26 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
+      <c r="D10" s="2">
+        <f>6-G10+0.1</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>7</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
         <v>6</v>
       </c>
-      <c r="I10">
-        <v>4</v>
+      <c r="I10" s="2">
+        <f t="shared" ref="I3:I33" si="1">7-G10</f>
+        <v>5</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -819,23 +852,26 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
+      <c r="D11" s="2">
+        <f>6-G11-0.2</f>
+        <v>5.3</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
       </c>
       <c r="F11">
         <v>6</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
+      <c r="G11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="I11" s="2">
+        <f>7-G11-0.1</f>
+        <v>6.4</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -851,23 +887,26 @@
       <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="2">
+        <f>6-G12-0.2</f>
+        <v>2.8</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>3</v>
       </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
+      <c r="H12" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -883,23 +922,26 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
+      <c r="D13" s="2">
+        <f>6-G13-0.01</f>
+        <v>3.24</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
       </c>
       <c r="F13">
         <v>9</v>
       </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
+      <c r="G13" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -915,23 +957,26 @@
       <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>8</v>
+      <c r="D14" s="2">
+        <f>6-G14+0.2</f>
+        <v>5.9</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+      <c r="G14" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>6.7</v>
       </c>
       <c r="J14" t="s">
         <v>21</v>
@@ -947,23 +992,26 @@
       <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
+      <c r="D15" s="2">
+        <f>6-G15-0.1</f>
+        <v>5.7</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
       </c>
       <c r="F15">
         <v>5</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
+      <c r="G15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H15" s="2">
         <v>7</v>
       </c>
-      <c r="I15">
-        <v>5</v>
+      <c r="I15" s="2">
+        <f t="shared" si="1"/>
+        <v>6.8</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -979,23 +1027,26 @@
       <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>6</v>
+      <c r="D16" s="2">
+        <f>6-G16+0.1</f>
+        <v>5.35</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
       </c>
       <c r="F16">
         <v>7</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="I16">
-        <v>4</v>
+      <c r="G16" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H16" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -1011,23 +1062,26 @@
       <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
+      <c r="D17" s="2">
+        <f>6-G17-0.1</f>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
       </c>
       <c r="F17">
         <v>7</v>
       </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
+      <c r="G17" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="H17" s="2">
         <v>6</v>
       </c>
-      <c r="I17">
-        <v>3</v>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>5.25</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -1043,23 +1097,26 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
+      <c r="D18" s="2">
+        <f>6-G18-0.2</f>
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
+      <c r="G18" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H18" s="2">
         <v>7</v>
       </c>
-      <c r="I18">
-        <v>2</v>
+      <c r="I18" s="2">
+        <f t="shared" si="1"/>
+        <v>6.1</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -1075,23 +1132,26 @@
       <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19">
-        <v>6</v>
+      <c r="D19" s="2">
+        <f>6-G19+0.05</f>
+        <v>3.55</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
       </c>
       <c r="F19">
         <v>9</v>
       </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>6</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
+      <c r="G19" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1107,23 +1167,26 @@
       <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>9</v>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D31" si="2">6-G20</f>
+        <v>5.9</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9</v>
       </c>
       <c r="F20">
         <v>10</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+      <c r="G20" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I20" s="2">
+        <f>7-G20-0.02</f>
+        <v>6.8800000000000008</v>
       </c>
       <c r="J20" t="s">
         <v>21</v>
@@ -1139,23 +1202,26 @@
       <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F21">
         <v>5</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>7</v>
       </c>
-      <c r="I21">
-        <v>7</v>
+      <c r="I21" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1171,23 +1237,26 @@
       <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>6</v>
+      <c r="D22" s="2">
+        <f t="shared" si="2"/>
+        <v>4.25</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
       </c>
       <c r="F22">
         <v>7</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>7</v>
-      </c>
-      <c r="I22">
-        <v>6</v>
+      <c r="G22" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="H22" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="1"/>
+        <v>5.25</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1203,23 +1272,26 @@
       <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>6</v>
+      <c r="D23" s="2">
+        <f>6-G23-0.04</f>
+        <v>3.16</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
       </c>
       <c r="F23">
         <v>8</v>
       </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
+      <c r="G23" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="H23" s="2">
         <v>6</v>
       </c>
-      <c r="I23">
-        <v>5</v>
+      <c r="I23" s="2">
+        <f>7-G23-0.1</f>
+        <v>4.1000000000000005</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1235,23 +1307,26 @@
       <c r="C24" t="s">
         <v>17</v>
       </c>
-      <c r="D24">
-        <v>7</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="2">
+        <f>6-G24+0.3</f>
+        <v>3.3</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F24">
         <v>10</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>3</v>
       </c>
       <c r="H24">
-        <v>6</v>
-      </c>
-      <c r="I24">
-        <v>4</v>
+        <v>4.5</v>
+      </c>
+      <c r="I24" s="2">
+        <f>7-G24+0.2</f>
+        <v>4.2</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1267,22 +1342,25 @@
       <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>7</v>
+      <c r="D25" s="2">
+        <f>6-G25+0.3</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F25">
         <v>10</v>
       </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25">
+      <c r="G25" s="2">
+        <v>4</v>
+      </c>
+      <c r="H25" s="2">
         <v>5</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J25" t="s">
@@ -1299,23 +1377,26 @@
       <c r="C26" t="s">
         <v>17</v>
       </c>
-      <c r="D26">
-        <v>7</v>
-      </c>
-      <c r="E26">
-        <v>8</v>
+      <c r="D26" s="2">
+        <f>6-G26+0.4</f>
+        <v>1.4</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F26">
         <v>11</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
+        <v>5</v>
+      </c>
+      <c r="H26" s="2">
         <v>3</v>
       </c>
-      <c r="H26">
-        <v>5</v>
-      </c>
-      <c r="I26">
-        <v>2</v>
+      <c r="I26" s="2">
+        <f>7-G26+0.4</f>
+        <v>2.4</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1331,23 +1412,26 @@
       <c r="C27" t="s">
         <v>11</v>
       </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F27">
         <v>8</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>1</v>
       </c>
-      <c r="H27">
-        <v>5</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
+      <c r="H27" s="2">
+        <v>6</v>
+      </c>
+      <c r="I27" s="2">
+        <f>7-G27+0.3</f>
+        <v>6.3</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1363,23 +1447,26 @@
       <c r="C28" t="s">
         <v>20</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>9</v>
+      <c r="D28" s="2">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
       </c>
       <c r="F28">
         <v>10</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>6</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
+      <c r="G28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I28" s="2">
+        <f>7-G28-0.04</f>
+        <v>6.46</v>
       </c>
       <c r="J28" t="s">
         <v>21</v>
@@ -1395,23 +1482,26 @@
       <c r="C29" t="s">
         <v>15</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
+      <c r="D29" s="2">
+        <f t="shared" si="2"/>
+        <v>5.9749999999999996</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9749999999999996</v>
       </c>
       <c r="F29">
         <v>5</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>6</v>
-      </c>
-      <c r="I29">
-        <v>4</v>
+      <c r="G29" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>9</v>
+      </c>
+      <c r="I29" s="2">
+        <f>7-G29+0.5</f>
+        <v>7.4749999999999996</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1427,23 +1517,26 @@
       <c r="C30" t="s">
         <v>11</v>
       </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="E30">
-        <v>7</v>
+      <c r="D30" s="2">
+        <f t="shared" si="2"/>
+        <v>4.3</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>7.3</v>
       </c>
       <c r="F30">
         <v>9</v>
       </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30">
+      <c r="G30" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="H30" s="2">
         <v>6</v>
       </c>
-      <c r="I30">
-        <v>3</v>
+      <c r="I30" s="2">
+        <f t="shared" si="1"/>
+        <v>5.3</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1459,23 +1552,26 @@
       <c r="C31" t="s">
         <v>17</v>
       </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F31">
         <v>11</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>3</v>
       </c>
-      <c r="H31">
-        <v>6</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
+      <c r="H31" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1491,23 +1587,26 @@
       <c r="C32" t="s">
         <v>17</v>
       </c>
-      <c r="D32">
-        <v>7</v>
-      </c>
-      <c r="E32">
-        <v>8</v>
+      <c r="D32" s="2">
+        <f>6-G32-0.2</f>
+        <v>4.05</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>9.25</v>
       </c>
       <c r="F32">
         <v>11</v>
       </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="H32">
+      <c r="G32" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="H32" s="2">
         <v>6</v>
       </c>
-      <c r="I32">
-        <v>1</v>
+      <c r="I32" s="2">
+        <f t="shared" si="1"/>
+        <v>5.25</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1523,23 +1622,26 @@
       <c r="C33" t="s">
         <v>20</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>9</v>
+      <c r="D33" s="2">
+        <f>6-G33+0.4</f>
+        <v>6.3500000000000005</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9499999999999993</v>
       </c>
       <c r="F33">
         <v>10</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>6</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
+      <c r="G33" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H33" s="2">
+        <v>9</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="1"/>
+        <v>6.95</v>
       </c>
       <c r="J33" t="s">
         <v>21</v>

--- a/stresslevel.xlsx
+++ b/stresslevel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huaweı\Desktop\stresslevelanalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huaweı\Desktop\DSA210\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915B3144-16BA-4B53-B477-F19096F3A254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F293EA65-83A1-482A-95BC-E0FCFCDA0EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{96E2EB0A-60DB-46F9-A655-503641024456}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +105,21 @@
   </si>
   <si>
     <t>Sunday</t>
+  </si>
+  <si>
+    <t>ExamPhase</t>
+  </si>
+  <si>
+    <t>CaffeineIntake</t>
+  </si>
+  <si>
+    <t>Near</t>
+  </si>
+  <si>
+    <t>Imminent</t>
+  </si>
+  <si>
+    <t>Far</t>
   </si>
 </sst>
 </file>
@@ -479,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF59C71-039C-4FCD-A08D-A9D36C617BEC}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +511,7 @@
     <col min="9" max="9" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,10 +530,10 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -527,8 +542,14 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45726</v>
       </c>
@@ -538,31 +559,35 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
-        <f>6-G2+0.2</f>
-        <v>3.2</v>
+      <c r="D2">
+        <v>5</v>
       </c>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2">
-        <f>7-G2+0.1</f>
-        <v>4.0999999999999996</v>
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45727</v>
       </c>
@@ -572,32 +597,35 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2">
-        <f>6-G3+0.4</f>
-        <v>3.9</v>
-      </c>
-      <c r="E3" s="2">
-        <f>F3-G3</f>
-        <v>5.5</v>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
       </c>
       <c r="F3">
         <v>8</v>
       </c>
-      <c r="G3" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2">
-        <f>7-G3-0.1</f>
-        <v>4.4000000000000004</v>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45728</v>
       </c>
@@ -607,32 +635,35 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2">
-        <f>6-G4+0.1</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" ref="E4:E33" si="0">F4-G4</f>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>4</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>8</v>
       </c>
-      <c r="I4" s="2">
-        <f>7-G4+0.2</f>
-        <v>6.2</v>
+      <c r="I4">
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45729</v>
       </c>
@@ -642,32 +673,35 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2">
-        <f>6-G5+0.3</f>
-        <v>5.8</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
       </c>
       <c r="F5">
         <v>9</v>
       </c>
-      <c r="G5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2">
-        <f>7-G5-0.1</f>
-        <v>6.4</v>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45730</v>
       </c>
@@ -677,32 +711,35 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
-        <f>6-G6+0.2</f>
-        <v>5.95</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>6.75</v>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
       </c>
       <c r="F6">
         <v>7</v>
       </c>
-      <c r="G6" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="H6" s="2">
-        <v>7</v>
-      </c>
-      <c r="I6" s="2">
-        <f>7-G6-0.2</f>
-        <v>6.55</v>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45731</v>
       </c>
@@ -712,32 +749,35 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2">
-        <f>6-G7+0.1</f>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>8.75</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
-      <c r="G7" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="H7" s="2">
-        <v>7</v>
-      </c>
-      <c r="I7" s="2">
-        <f>7-G7+0.3</f>
-        <v>6.05</v>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45732</v>
       </c>
@@ -747,32 +787,35 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2">
-        <f>6-G8+0.2</f>
-        <v>5.2</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>7</v>
-      </c>
-      <c r="I8" s="2">
-        <f>7-G8-5</f>
-        <v>1</v>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45733</v>
       </c>
@@ -782,32 +825,35 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2">
-        <f>6-G9-0.1</f>
-        <v>3.65</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>5.75</v>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
-      <c r="G9" s="2">
-        <v>2.25</v>
-      </c>
-      <c r="H9" s="2">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2">
-        <f>7-G9+0.02</f>
-        <v>4.7699999999999996</v>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45734</v>
       </c>
@@ -817,32 +863,35 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2">
-        <f>6-G10+0.1</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
       </c>
       <c r="F10">
         <v>7</v>
       </c>
-      <c r="G10" s="2">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" ref="I3:I33" si="1">7-G10</f>
-        <v>5</v>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45735</v>
       </c>
@@ -852,32 +901,35 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2">
-        <f>6-G11-0.2</f>
-        <v>5.3</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
       </c>
       <c r="F11">
         <v>6</v>
       </c>
-      <c r="G11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="I11" s="2">
-        <f>7-G11-0.1</f>
-        <v>6.4</v>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45736</v>
       </c>
@@ -887,32 +939,35 @@
       <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="2">
-        <f>6-G12-0.2</f>
-        <v>2.8</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
         <v>7</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
-      <c r="G12" s="2">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45737</v>
       </c>
@@ -922,32 +977,35 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2">
-        <f>6-G13-0.01</f>
-        <v>3.24</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>6.25</v>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
       </c>
       <c r="F13">
         <v>9</v>
       </c>
-      <c r="G13" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="H13" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="1"/>
-        <v>4.25</v>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45738</v>
       </c>
@@ -957,32 +1015,35 @@
       <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="2">
-        <f>6-G14+0.2</f>
-        <v>5.9</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>9.6999999999999993</v>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
-      <c r="G14" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H14" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="1"/>
-        <v>6.7</v>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45739</v>
       </c>
@@ -992,32 +1053,35 @@
       <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="2">
-        <f>6-G15-0.1</f>
-        <v>5.7</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
       </c>
       <c r="F15">
         <v>5</v>
       </c>
-      <c r="G15" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H15" s="2">
-        <v>7</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="1"/>
-        <v>6.8</v>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45740</v>
       </c>
@@ -1027,32 +1091,35 @@
       <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2">
-        <f>6-G16+0.1</f>
-        <v>5.35</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>6.25</v>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
       </c>
       <c r="F16">
         <v>7</v>
       </c>
-      <c r="G16" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="H16" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="1"/>
-        <v>6.25</v>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45741</v>
       </c>
@@ -1062,32 +1129,35 @@
       <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2">
-        <f>6-G17-0.1</f>
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>5.25</v>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
       </c>
       <c r="F17">
         <v>7</v>
       </c>
-      <c r="G17" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="H17" s="2">
-        <v>6</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="1"/>
-        <v>5.25</v>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45742</v>
       </c>
@@ -1097,32 +1167,35 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="2">
-        <f>6-G18-0.2</f>
-        <v>4.8999999999999995</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0999999999999996</v>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
-      <c r="G18" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="H18" s="2">
-        <v>7</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="1"/>
-        <v>6.1</v>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45743</v>
       </c>
@@ -1132,32 +1205,35 @@
       <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="2">
-        <f>6-G19+0.05</f>
-        <v>3.55</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
       </c>
       <c r="F19">
         <v>9</v>
       </c>
-      <c r="G19" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="H19" s="2">
-        <v>5</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45744</v>
       </c>
@@ -1167,32 +1243,35 @@
       <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" ref="D20:D31" si="2">6-G20</f>
-        <v>5.9</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>9.9</v>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
       </c>
       <c r="F20">
         <v>10</v>
       </c>
-      <c r="G20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H20" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="I20" s="2">
-        <f>7-G20-0.02</f>
-        <v>6.8800000000000008</v>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45745</v>
       </c>
@@ -1202,32 +1281,35 @@
       <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>4</v>
       </c>
       <c r="F21">
         <v>5</v>
       </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2">
-        <v>7</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45746</v>
       </c>
@@ -1237,32 +1319,35 @@
       <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" si="2"/>
-        <v>4.25</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>5.25</v>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
       </c>
       <c r="F22">
         <v>7</v>
       </c>
-      <c r="G22" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="H22" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="1"/>
-        <v>5.25</v>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45747</v>
       </c>
@@ -1272,32 +1357,35 @@
       <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="2">
-        <f>6-G23-0.04</f>
-        <v>3.16</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>5.2</v>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
       </c>
       <c r="F23">
         <v>8</v>
       </c>
-      <c r="G23" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="H23" s="2">
-        <v>6</v>
-      </c>
-      <c r="I23" s="2">
-        <f>7-G23-0.1</f>
-        <v>4.1000000000000005</v>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45748</v>
       </c>
@@ -1307,32 +1395,35 @@
       <c r="C24" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="2">
-        <f>6-G24+0.3</f>
-        <v>3.3</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
         <v>7</v>
       </c>
       <c r="F24">
         <v>10</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24">
         <v>3</v>
       </c>
       <c r="H24">
-        <v>4.5</v>
-      </c>
-      <c r="I24" s="2">
-        <f>7-G24+0.2</f>
-        <v>4.2</v>
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45749</v>
       </c>
@@ -1342,32 +1433,35 @@
       <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="2">
-        <f>6-G25+0.3</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
       </c>
       <c r="F25">
         <v>10</v>
       </c>
-      <c r="G25" s="2">
-        <v>4</v>
-      </c>
-      <c r="H25" s="2">
-        <v>5</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" si="1"/>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
         <v>3</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45750</v>
       </c>
@@ -1377,32 +1471,35 @@
       <c r="C26" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="2">
-        <f>6-G26+0.4</f>
-        <v>1.4</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
       </c>
       <c r="F26">
         <v>11</v>
       </c>
-      <c r="G26" s="2">
-        <v>5</v>
-      </c>
-      <c r="H26" s="2">
-        <v>3</v>
-      </c>
-      <c r="I26" s="2">
-        <f>7-G26+0.4</f>
-        <v>2.4</v>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45751</v>
       </c>
@@ -1412,32 +1509,35 @@
       <c r="C27" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="0"/>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
         <v>7</v>
       </c>
       <c r="F27">
         <v>8</v>
       </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2">
-        <v>6</v>
-      </c>
-      <c r="I27" s="2">
-        <f>7-G27+0.3</f>
-        <v>6.3</v>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45752</v>
       </c>
@@ -1447,32 +1547,35 @@
       <c r="C28" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="2">
-        <f t="shared" si="2"/>
-        <v>5.5</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
       </c>
       <c r="F28">
         <v>10</v>
       </c>
-      <c r="G28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H28" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="I28" s="2">
-        <f>7-G28-0.04</f>
-        <v>6.46</v>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45753</v>
       </c>
@@ -1482,32 +1585,35 @@
       <c r="C29" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="2">
-        <f t="shared" si="2"/>
-        <v>5.9749999999999996</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="0"/>
-        <v>4.9749999999999996</v>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
       </c>
       <c r="F29">
         <v>5</v>
       </c>
-      <c r="G29" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H29" s="2">
-        <v>9</v>
-      </c>
-      <c r="I29" s="2">
-        <f>7-G29+0.5</f>
-        <v>7.4749999999999996</v>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45754</v>
       </c>
@@ -1517,32 +1623,35 @@
       <c r="C30" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="2">
-        <f t="shared" si="2"/>
-        <v>4.3</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="0"/>
-        <v>7.3</v>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
       </c>
       <c r="F30">
         <v>9</v>
       </c>
-      <c r="G30" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="H30" s="2">
-        <v>6</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" si="1"/>
-        <v>5.3</v>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45755</v>
       </c>
@@ -1552,32 +1661,35 @@
       <c r="C31" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="0"/>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
         <v>8</v>
       </c>
       <c r="F31">
         <v>11</v>
       </c>
-      <c r="G31" s="2">
-        <v>3</v>
-      </c>
-      <c r="H31" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45756</v>
       </c>
@@ -1587,32 +1699,35 @@
       <c r="C32" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="2">
-        <f>6-G32-0.2</f>
-        <v>4.05</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="0"/>
-        <v>9.25</v>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
       </c>
       <c r="F32">
         <v>11</v>
       </c>
-      <c r="G32" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="H32" s="2">
-        <v>6</v>
-      </c>
-      <c r="I32" s="2">
-        <f t="shared" si="1"/>
-        <v>5.25</v>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45757</v>
       </c>
@@ -1622,29 +1737,32 @@
       <c r="C33" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="2">
-        <f>6-G33+0.4</f>
-        <v>6.3500000000000005</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="0"/>
-        <v>9.9499999999999993</v>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>9</v>
       </c>
       <c r="F33">
         <v>10</v>
       </c>
-      <c r="G33" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="H33" s="2">
-        <v>9</v>
-      </c>
-      <c r="I33" s="2">
-        <f t="shared" si="1"/>
-        <v>6.95</v>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>21</v>
+      </c>
+      <c r="K33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
